--- a/北科/方向模板.xlsx
+++ b/北科/方向模板.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,127 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(015)能源与环境工程学院</t>
+          <t>(070)数理学院</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(080700)动力工程及工程热物理</t>
+          <t>(070100)数学</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(01)工程热物理</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>(080700)动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(02)热能工程</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(080700)动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(03)制冷及低温工程</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>(080700)动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>(04)新能源科学与工程</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>(080700)动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>(05)储能科学与工程</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>(10008)北京科技大学</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(015)能源与环境工程学院</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>(080700)动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>(06)碳中和科学与工程</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
